--- a/Test Case/Validazione/5-Referto di Medicina di Laboratorio/CDA2_Referto Medicina di Laboratorio_KO.xlsx
+++ b/Test Case/Validazione/5-Referto di Medicina di Laboratorio/CDA2_Referto Medicina di Laboratorio_KO.xlsx
@@ -41761,13 +41761,17 @@
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d04b37e-0497-498c-96f6-8855740e5edb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010099D50BAF6148C0469FC2106F96A8440B" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c25bf1fc3184a9914f412ea273c11a4">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d04b37e-0497-498c-96f6-8855740e5edb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="88da7026946f39f8a400a0307dada779" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010099D50BAF6148C0469FC2106F96A8440B" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7768c764893153760d939b2a04face0b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d04b37e-0497-498c-96f6-8855740e5edb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7ef69b4f9d45f678c0f7c9c89f8623db" ns2:_="">
     <xsd:import namespace="3d04b37e-0497-498c-96f6-8855740e5edb"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -41779,6 +41783,10 @@
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -41807,6 +41815,30 @@
     <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="33ef62f9-2e07-484b-bd79-00aec90129fe" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -41934,19 +41966,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{150BEA67-6C78-4E7D-8587-9E5431AEA276}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3d04b37e-0497-498c-96f6-8855740e5edb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02C04935-5D2D-42AE-B687-C937952F3AAF}"/>
 </file>